--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3013230.094148897</v>
+        <v>3014990.624451682</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>32.06687328838378</v>
+        <v>365.7848680240198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>99.06392343821568</v>
+        <v>99.06392343821524</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3814891701936</v>
       </c>
       <c r="G5" t="n">
-        <v>363.0531462014394</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.36610313819068</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.8412861002821</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.644893949213</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>289.1368159411026</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>38.35260266107566</v>
+        <v>184.7865653076445</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>75.9678879306182</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>100.5140508960355</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>146.0535160667528</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>21.90286287505374</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>884.1849331278579</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="C2" t="n">
-        <v>515.2224161874462</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="D2" t="n">
-        <v>156.9567175806957</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="E2" t="n">
-        <v>156.9567175806957</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="F2" t="n">
-        <v>150.0112168314923</v>
+        <v>487.1001004028417</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,13 +4357,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
@@ -4372,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>560.1394111735141</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.0370443974457</v>
+        <v>783.0370443974452</v>
       </c>
       <c r="C4" t="n">
-        <v>614.1008614695388</v>
+        <v>614.1008614695384</v>
       </c>
       <c r="D4" t="n">
         <v>514.036292340028</v>
@@ -4479,34 +4479,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X4" t="n">
-        <v>1185.478088371216</v>
+        <v>1185.478088371215</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.6855092276854</v>
+        <v>964.685509227685</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.17408682082</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.17408682082</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="D5" t="n">
-        <v>1585.17408682082</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.385834222576</v>
+        <v>1199.385834222572</v>
       </c>
       <c r="F5" t="n">
-        <v>788.3999294329681</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796632</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796632</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796632</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796632</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.17408682082</v>
+        <v>1585.174086820817</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>590.2049751143509</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>884.9085321458224</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885493</v>
+        <v>751.3310369968226</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606424</v>
+        <v>582.3948540689157</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>432.27821465658</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>284.3651210741868</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800314</v>
+        <v>137.4751735762765</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800314</v>
+        <v>137.4751735762765</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.533244860336</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1153.772080970592</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.751114818789</v>
+        <v>932.9795018270623</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1032.061124352529</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>656.1531066629137</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2182.266054653542</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1808.800296392462</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
@@ -4998,16 +4998,16 @@
         <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.868661227364</v>
+        <v>1548.955567644971</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.451491190403</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.461940292386</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.6693611488557</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,22 +5053,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2370.227843246303</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2150.626378269244</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1861.551151613442</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1317.449493370594</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.459942472577</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>868.6673633290469</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5296,25 +5296,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6138,10 +6138,10 @@
         <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7004,19 +7004,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
@@ -7086,22 +7086,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7180,16 +7180,16 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878338</v>
+        <v>168.7434581780657</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-3.530613443644091e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0583980710264</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>186.0089474405555</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.97276993489183</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>143.6212754172151</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="12">
@@ -26316,28 +26316,28 @@
         <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>1.569592313899193e-10</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921024</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810798</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756694</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646530.3253232264</v>
+        <v>-646530.3253232262</v>
       </c>
       <c r="C6" t="n">
-        <v>468221.458252693</v>
+        <v>468221.4582526938</v>
       </c>
       <c r="D6" t="n">
-        <v>308800.1882548022</v>
+        <v>308800.1882548017</v>
       </c>
       <c r="E6" t="n">
-        <v>249855.0384941298</v>
+        <v>250167.6798230506</v>
       </c>
       <c r="F6" t="n">
-        <v>575267.5003014849</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="G6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="H6" t="n">
-        <v>575267.5003014852</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="I6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="J6" t="n">
-        <v>407662.3224915024</v>
+        <v>407974.9638204235</v>
       </c>
       <c r="K6" t="n">
-        <v>575267.5003014848</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="L6" t="n">
-        <v>526973.5302932943</v>
+        <v>527286.1716222157</v>
       </c>
       <c r="M6" t="n">
-        <v>490212.4723659733</v>
+        <v>490525.1136948944</v>
       </c>
       <c r="N6" t="n">
-        <v>575267.5003014848</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="O6" t="n">
-        <v>575267.5003014851</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="P6" t="n">
-        <v>575267.5003014852</v>
+        <v>575580.1416304064</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>379.4808294845702</v>
+        <v>45.76283474893421</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.55154957999667</v>
+        <v>49.55154957999711</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>48.49455657151782</v>
       </c>
       <c r="G5" t="n">
-        <v>48.49455657151458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>61.88540601693819</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>77.90740989692986</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0381476714699</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>121.7849097123509</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>213.7850406627524</v>
+        <v>67.35107801618349</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32238,13 +32238,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313188</v>
+        <v>355.3309544215504</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
